--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltb</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.46642165547989</v>
+        <v>29.679736</v>
       </c>
       <c r="H2">
-        <v>4.46642165547989</v>
+        <v>89.039208</v>
       </c>
       <c r="I2">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="J2">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.0206872705631</v>
+        <v>13.74343533333333</v>
       </c>
       <c r="N2">
-        <v>12.0206872705631</v>
+        <v>41.230306</v>
       </c>
       <c r="O2">
-        <v>0.2337200768784548</v>
+        <v>0.2479265276060321</v>
       </c>
       <c r="P2">
-        <v>0.2337200768784548</v>
+        <v>0.2479265276060321</v>
       </c>
       <c r="Q2">
-        <v>53.68945793899449</v>
+        <v>407.9015324264053</v>
       </c>
       <c r="R2">
-        <v>53.68945793899449</v>
+        <v>3671.113791837648</v>
       </c>
       <c r="S2">
-        <v>0.1731522271969084</v>
+        <v>0.2341529395947266</v>
       </c>
       <c r="T2">
-        <v>0.1731522271969084</v>
+        <v>0.2341529395947266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.46642165547989</v>
+        <v>29.679736</v>
       </c>
       <c r="H3">
-        <v>4.46642165547989</v>
+        <v>89.039208</v>
       </c>
       <c r="I3">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="J3">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.0533052719575</v>
+        <v>17.10605733333334</v>
       </c>
       <c r="N3">
-        <v>17.0533052719575</v>
+        <v>51.318172</v>
       </c>
       <c r="O3">
-        <v>0.3315700449968496</v>
+        <v>0.308586993922604</v>
       </c>
       <c r="P3">
-        <v>0.3315700449968496</v>
+        <v>0.3085869939226041</v>
       </c>
       <c r="Q3">
-        <v>76.16725196418035</v>
+        <v>507.7032656541974</v>
       </c>
       <c r="R3">
-        <v>76.16725196418035</v>
+        <v>4569.329390887777</v>
       </c>
       <c r="S3">
-        <v>0.2456446725919939</v>
+        <v>0.2914434064211842</v>
       </c>
       <c r="T3">
-        <v>0.2456446725919939</v>
+        <v>0.2914434064211843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.46642165547989</v>
+        <v>29.679736</v>
       </c>
       <c r="H4">
-        <v>4.46642165547989</v>
+        <v>89.039208</v>
       </c>
       <c r="I4">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="J4">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9866785139439</v>
+        <v>13.97615833333334</v>
       </c>
       <c r="N4">
-        <v>11.9866785139439</v>
+        <v>41.92847500000001</v>
       </c>
       <c r="O4">
-        <v>0.233058839377414</v>
+        <v>0.252124765083391</v>
       </c>
       <c r="P4">
-        <v>0.233058839377414</v>
+        <v>0.2521247650833911</v>
       </c>
       <c r="Q4">
-        <v>53.53756049195454</v>
+        <v>414.8086896275335</v>
       </c>
       <c r="R4">
-        <v>53.53756049195454</v>
+        <v>3733.278206647801</v>
       </c>
       <c r="S4">
-        <v>0.1726623473905156</v>
+        <v>0.2381179434849212</v>
       </c>
       <c r="T4">
-        <v>0.1726623473905156</v>
+        <v>0.2381179434849212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.46642165547989</v>
+        <v>29.679736</v>
       </c>
       <c r="H5">
-        <v>4.46642165547989</v>
+        <v>89.039208</v>
       </c>
       <c r="I5">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="J5">
-        <v>0.7408530302981013</v>
+        <v>0.9444448799234891</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.3713130123</v>
+        <v>10.60784966666667</v>
       </c>
       <c r="N5">
-        <v>10.3713130123</v>
+        <v>31.823549</v>
       </c>
       <c r="O5">
-        <v>0.2016510387472816</v>
+        <v>0.1913617133879728</v>
       </c>
       <c r="P5">
-        <v>0.2016510387472816</v>
+        <v>0.1913617133879728</v>
       </c>
       <c r="Q5">
-        <v>46.32265703389709</v>
+        <v>314.8381776343547</v>
       </c>
       <c r="R5">
-        <v>46.32265703389709</v>
+        <v>2833.543598709192</v>
       </c>
       <c r="S5">
-        <v>0.1493937831186834</v>
+        <v>0.1807305904226571</v>
       </c>
       <c r="T5">
-        <v>0.1493937831186834</v>
+        <v>0.1807305904226571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.56233367495685</v>
+        <v>1.732308333333333</v>
       </c>
       <c r="H6">
-        <v>1.56233367495685</v>
+        <v>5.196925</v>
       </c>
       <c r="I6">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417655</v>
       </c>
       <c r="J6">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417656</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0206872705631</v>
+        <v>13.74343533333333</v>
       </c>
       <c r="N6">
-        <v>12.0206872705631</v>
+        <v>41.230306</v>
       </c>
       <c r="O6">
-        <v>0.2337200768784548</v>
+        <v>0.2479265276060321</v>
       </c>
       <c r="P6">
-        <v>0.2337200768784548</v>
+        <v>0.2479265276060321</v>
       </c>
       <c r="Q6">
-        <v>18.78032451892587</v>
+        <v>23.80786755656111</v>
       </c>
       <c r="R6">
-        <v>18.78032451892587</v>
+        <v>214.27080800905</v>
       </c>
       <c r="S6">
-        <v>0.06056784968154634</v>
+        <v>0.0136667350590464</v>
       </c>
       <c r="T6">
-        <v>0.06056784968154634</v>
+        <v>0.0136667350590464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.56233367495685</v>
+        <v>1.732308333333333</v>
       </c>
       <c r="H7">
-        <v>1.56233367495685</v>
+        <v>5.196925</v>
       </c>
       <c r="I7">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417655</v>
       </c>
       <c r="J7">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417656</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.0533052719575</v>
+        <v>17.10605733333334</v>
       </c>
       <c r="N7">
-        <v>17.0533052719575</v>
+        <v>51.318172</v>
       </c>
       <c r="O7">
-        <v>0.3315700449968496</v>
+        <v>0.308586993922604</v>
       </c>
       <c r="P7">
-        <v>0.3315700449968496</v>
+        <v>0.3085869939226041</v>
       </c>
       <c r="Q7">
-        <v>26.64295309569838</v>
+        <v>29.63296566901112</v>
       </c>
       <c r="R7">
-        <v>26.64295309569838</v>
+        <v>266.6966910211</v>
       </c>
       <c r="S7">
-        <v>0.08592537240485576</v>
+        <v>0.01701059071544541</v>
       </c>
       <c r="T7">
-        <v>0.08592537240485576</v>
+        <v>0.01701059071544542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.56233367495685</v>
+        <v>1.732308333333333</v>
       </c>
       <c r="H8">
-        <v>1.56233367495685</v>
+        <v>5.196925</v>
       </c>
       <c r="I8">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417655</v>
       </c>
       <c r="J8">
-        <v>0.2591469697018987</v>
+        <v>0.05512413371417656</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.9866785139439</v>
+        <v>13.97615833333334</v>
       </c>
       <c r="N8">
-        <v>11.9866785139439</v>
+        <v>41.92847500000001</v>
       </c>
       <c r="O8">
-        <v>0.233058839377414</v>
+        <v>0.252124765083391</v>
       </c>
       <c r="P8">
-        <v>0.233058839377414</v>
+        <v>0.2521247650833911</v>
       </c>
       <c r="Q8">
-        <v>18.72719149321629</v>
+        <v>24.21101554881945</v>
       </c>
       <c r="R8">
-        <v>18.72719149321629</v>
+        <v>217.899139939375</v>
       </c>
       <c r="S8">
-        <v>0.06039649198689837</v>
+        <v>0.0138981592631122</v>
       </c>
       <c r="T8">
-        <v>0.06039649198689837</v>
+        <v>0.0138981592631122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.732308333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.196925</v>
+      </c>
+      <c r="I9">
+        <v>0.05512413371417655</v>
+      </c>
+      <c r="J9">
+        <v>0.05512413371417656</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.60784966666667</v>
+      </c>
+      <c r="N9">
+        <v>31.823549</v>
+      </c>
+      <c r="O9">
+        <v>0.1913617133879728</v>
+      </c>
+      <c r="P9">
+        <v>0.1913617133879728</v>
+      </c>
+      <c r="Q9">
+        <v>18.37606637631389</v>
+      </c>
+      <c r="R9">
+        <v>165.384597386825</v>
+      </c>
+      <c r="S9">
+        <v>0.01054864867657254</v>
+      </c>
+      <c r="T9">
+        <v>0.01054864867657254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.013544</v>
+      </c>
+      <c r="H10">
+        <v>0.040632</v>
+      </c>
+      <c r="I10">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="J10">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.74343533333333</v>
+      </c>
+      <c r="N10">
+        <v>41.230306</v>
+      </c>
+      <c r="O10">
+        <v>0.2479265276060321</v>
+      </c>
+      <c r="P10">
+        <v>0.2479265276060321</v>
+      </c>
+      <c r="Q10">
+        <v>0.1861410881546667</v>
+      </c>
+      <c r="R10">
+        <v>1.675269793392</v>
+      </c>
+      <c r="S10">
+        <v>0.0001068529522591096</v>
+      </c>
+      <c r="T10">
+        <v>0.0001068529522591096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.56233367495685</v>
-      </c>
-      <c r="H9">
-        <v>1.56233367495685</v>
-      </c>
-      <c r="I9">
-        <v>0.2591469697018987</v>
-      </c>
-      <c r="J9">
-        <v>0.2591469697018987</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.3713130123</v>
-      </c>
-      <c r="N9">
-        <v>10.3713130123</v>
-      </c>
-      <c r="O9">
-        <v>0.2016510387472816</v>
-      </c>
-      <c r="P9">
-        <v>0.2016510387472816</v>
-      </c>
-      <c r="Q9">
-        <v>16.20345157263446</v>
-      </c>
-      <c r="R9">
-        <v>16.20345157263446</v>
-      </c>
-      <c r="S9">
-        <v>0.05225725562859818</v>
-      </c>
-      <c r="T9">
-        <v>0.05225725562859818</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.013544</v>
+      </c>
+      <c r="H11">
+        <v>0.040632</v>
+      </c>
+      <c r="I11">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="J11">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.10605733333334</v>
+      </c>
+      <c r="N11">
+        <v>51.318172</v>
+      </c>
+      <c r="O11">
+        <v>0.308586993922604</v>
+      </c>
+      <c r="P11">
+        <v>0.3085869939226041</v>
+      </c>
+      <c r="Q11">
+        <v>0.2316844405226667</v>
+      </c>
+      <c r="R11">
+        <v>2.085159964704</v>
+      </c>
+      <c r="S11">
+        <v>0.0001329967859743941</v>
+      </c>
+      <c r="T11">
+        <v>0.0001329967859743941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.013544</v>
+      </c>
+      <c r="H12">
+        <v>0.040632</v>
+      </c>
+      <c r="I12">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="J12">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.97615833333334</v>
+      </c>
+      <c r="N12">
+        <v>41.92847500000001</v>
+      </c>
+      <c r="O12">
+        <v>0.252124765083391</v>
+      </c>
+      <c r="P12">
+        <v>0.2521247650833911</v>
+      </c>
+      <c r="Q12">
+        <v>0.1892930884666667</v>
+      </c>
+      <c r="R12">
+        <v>1.7036377962</v>
+      </c>
+      <c r="S12">
+        <v>0.0001086623353576923</v>
+      </c>
+      <c r="T12">
+        <v>0.0001086623353576923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.013544</v>
+      </c>
+      <c r="H13">
+        <v>0.040632</v>
+      </c>
+      <c r="I13">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="J13">
+        <v>0.0004309863623343461</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.60784966666667</v>
+      </c>
+      <c r="N13">
+        <v>31.823549</v>
+      </c>
+      <c r="O13">
+        <v>0.1913617133879728</v>
+      </c>
+      <c r="P13">
+        <v>0.1913617133879728</v>
+      </c>
+      <c r="Q13">
+        <v>0.1436727158853333</v>
+      </c>
+      <c r="R13">
+        <v>1.293054442968</v>
+      </c>
+      <c r="S13">
+        <v>8.247428874315013E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.247428874315014E-05</v>
       </c>
     </row>
   </sheetData>
